--- a/data/trans_orig/Q17F_D_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F91E26-4328-4AA3-858E-7CE7FE2C3BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA9C54B-5F43-49C5-86F1-24E321662676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB524610-9E98-4FAE-B04E-1AE503F3A656}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F72E6405-19D2-49F9-B313-920456C83736}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2007 (Tasa respuesta: 23,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,25 +77,28 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +107,28 @@
     <t>86,4%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>93,91%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +140,55 @@
     <t>19,54%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>84,0%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -191,55 +197,55 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,55 +254,55 @@
     <t>18,18%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>19,02%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>81,82%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,49 +311,55 @@
     <t>18,66%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>14,7%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>80,07%</t>
   </si>
   <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>85,3%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -356,1189 +368,1207 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2012 (Tasa respuesta: 26,39%)</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2012 (Tasa respuesta: 26,39%)</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2023 (Tasa respuesta: 22,27%)</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2016 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2023 (Tasa respuesta: 22,27%)</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>35,48%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>64,52%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>51,78%</t>
   </si>
   <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
   </si>
   <si>
     <t>44,33%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>40,2%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>55,67%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>59,8%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
+    <t>38,5%</t>
   </si>
   <si>
     <t>66,6%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>61,5%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>62,15%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6A39AC-C0C7-47C0-90C7-CB093A9340BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585C6AB2-E1E1-490C-8583-F6514EB38E15}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,13 +2140,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>43</v>
@@ -2125,13 +2155,13 @@
         <v>43957</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -2140,13 +2170,13 @@
         <v>67634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -2155,13 +2185,13 @@
         <v>111591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2206,13 @@
         <v>50874</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>75</v>
@@ -2191,13 +2221,13 @@
         <v>73481</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>125</v>
@@ -2206,18 +2236,18 @@
         <v>124355</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2229,13 +2259,13 @@
         <v>13379</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2244,13 +2274,13 @@
         <v>22991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -2259,19 +2289,19 @@
         <v>36371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>54</v>
@@ -2280,13 +2310,13 @@
         <v>55109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>115</v>
@@ -2295,13 +2325,13 @@
         <v>120720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -2310,13 +2340,13 @@
         <v>175828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2361,13 @@
         <v>68488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>136</v>
@@ -2346,13 +2376,13 @@
         <v>143711</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>203</v>
@@ -2361,18 +2391,18 @@
         <v>212199</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2384,13 +2414,13 @@
         <v>11659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2399,13 +2429,13 @@
         <v>29391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -2414,19 +2444,19 @@
         <v>41050</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>66</v>
@@ -2435,13 +2465,13 @@
         <v>71074</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
@@ -2450,13 +2480,13 @@
         <v>137449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>199</v>
@@ -2465,13 +2495,13 @@
         <v>208523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2516,13 @@
         <v>82733</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
@@ -2501,13 +2531,13 @@
         <v>166840</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>239</v>
@@ -2516,18 +2546,18 @@
         <v>249573</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2569,13 @@
         <v>14115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2554,13 +2584,13 @@
         <v>26325</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2569,19 +2599,19 @@
         <v>40441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>60</v>
@@ -2590,13 +2620,13 @@
         <v>63533</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -2605,13 +2635,13 @@
         <v>108621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>166</v>
@@ -2620,13 +2650,13 @@
         <v>172154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2671,13 @@
         <v>77648</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>131</v>
@@ -2656,13 +2686,13 @@
         <v>134946</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>205</v>
@@ -2671,18 +2701,18 @@
         <v>212595</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2724,13 @@
         <v>21763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2709,13 +2739,13 @@
         <v>28376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -2724,19 +2754,19 @@
         <v>50140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>97</v>
@@ -2745,13 +2775,13 @@
         <v>94847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -2760,13 +2790,13 @@
         <v>114033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>212</v>
@@ -2775,13 +2805,13 @@
         <v>208879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2826,13 @@
         <v>116610</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>142</v>
@@ -2811,13 +2841,13 @@
         <v>142409</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2826,18 +2856,18 @@
         <v>259019</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2879,13 @@
         <v>33067</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -2864,13 +2894,13 @@
         <v>29041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2879,19 +2909,19 @@
         <v>62108</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>185</v>
@@ -2900,13 +2930,13 @@
         <v>175663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>272</v>
@@ -2915,13 +2945,13 @@
         <v>277854</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
@@ -2930,13 +2960,13 @@
         <v>453518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2981,13 @@
         <v>208730</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>300</v>
@@ -2966,13 +2996,13 @@
         <v>306895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>520</v>
@@ -2981,13 +3011,13 @@
         <v>515626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,16 +3031,16 @@
         <v>103</v>
       </c>
       <c r="D22" s="7">
-        <v>100900</v>
+        <v>100901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
@@ -3019,13 +3049,13 @@
         <v>141973</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -3034,19 +3064,19 @@
         <v>242873</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>505</v>
@@ -3055,13 +3085,13 @@
         <v>504183</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>810</v>
@@ -3070,13 +3100,13 @@
         <v>826310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1315</v>
@@ -3085,13 +3115,13 @@
         <v>1330493</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,16 +3133,16 @@
         <v>608</v>
       </c>
       <c r="D24" s="7">
-        <v>605083</v>
+        <v>605084</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>945</v>
@@ -3121,13 +3151,13 @@
         <v>968283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1553</v>
@@ -3136,18 +3166,18 @@
         <v>1573366</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3028895-0D10-458E-A763-FA82B92DADCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE7224-D1C6-482C-BB6A-3976147CB21C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3323,13 @@
         <v>4924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3308,13 +3338,13 @@
         <v>14127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3323,19 +3353,19 @@
         <v>19051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>53</v>
@@ -3344,13 +3374,13 @@
         <v>53106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -3359,13 +3389,13 @@
         <v>81218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -3374,13 +3404,13 @@
         <v>134324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3425,13 @@
         <v>58030</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -3410,13 +3440,13 @@
         <v>95345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>149</v>
@@ -3425,18 +3455,18 @@
         <v>153375</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3448,13 +3478,13 @@
         <v>10996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3463,13 +3493,13 @@
         <v>21107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3478,19 +3508,19 @@
         <v>32104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>82</v>
@@ -3499,13 +3529,13 @@
         <v>84464</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>130</v>
@@ -3514,13 +3544,13 @@
         <v>138838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -3529,13 +3559,13 @@
         <v>223301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3580,13 @@
         <v>95460</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>151</v>
@@ -3565,13 +3595,13 @@
         <v>159945</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>244</v>
@@ -3580,18 +3610,18 @@
         <v>255405</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3603,13 +3633,13 @@
         <v>15091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3618,13 +3648,13 @@
         <v>25417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3633,19 +3663,19 @@
         <v>40508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>99</v>
@@ -3654,13 +3684,13 @@
         <v>107555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>151</v>
@@ -3669,13 +3699,13 @@
         <v>162453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>250</v>
@@ -3684,13 +3714,13 @@
         <v>270008</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3735,13 @@
         <v>122646</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>176</v>
@@ -3720,13 +3750,13 @@
         <v>187870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>290</v>
@@ -3735,18 +3765,18 @@
         <v>310516</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3788,13 @@
         <v>17728</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3773,13 +3803,13 @@
         <v>26902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3788,19 +3818,19 @@
         <v>44629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>78</v>
@@ -3809,13 +3839,13 @@
         <v>89767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3824,13 +3854,13 @@
         <v>161425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>220</v>
@@ -3839,13 +3869,13 @@
         <v>251193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3890,13 @@
         <v>107495</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>166</v>
@@ -3875,13 +3905,13 @@
         <v>188327</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>260</v>
@@ -3890,18 +3920,18 @@
         <v>295822</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3943,13 @@
         <v>21451</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3928,13 +3958,13 @@
         <v>22009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3943,19 +3973,19 @@
         <v>43460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>95</v>
@@ -3964,28 +3994,28 @@
         <v>105718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
       </c>
       <c r="I17" s="7">
-        <v>128338</v>
+        <v>128337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -3994,13 +4024,13 @@
         <v>234055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,28 +4045,28 @@
         <v>127169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>141</v>
       </c>
       <c r="I18" s="7">
-        <v>150347</v>
+        <v>150346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>257</v>
@@ -4045,18 +4075,18 @@
         <v>277515</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4098,13 @@
         <v>38229</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -4083,13 +4113,13 @@
         <v>41416</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -4098,19 +4128,19 @@
         <v>79645</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>176</v>
@@ -4119,13 +4149,13 @@
         <v>196946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
@@ -4134,13 +4164,13 @@
         <v>284853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -4149,13 +4179,13 @@
         <v>481800</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4200,13 @@
         <v>235175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>307</v>
@@ -4185,13 +4215,13 @@
         <v>326269</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>517</v>
@@ -4200,13 +4230,13 @@
         <v>561445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4253,13 @@
         <v>108419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
@@ -4238,13 +4268,13 @@
         <v>150978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>245</v>
@@ -4253,19 +4283,19 @@
         <v>259397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>583</v>
@@ -4274,13 +4304,13 @@
         <v>637556</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>889</v>
@@ -4289,13 +4319,13 @@
         <v>957126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1472</v>
@@ -4304,13 +4334,13 @@
         <v>1594681</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4355,13 @@
         <v>745975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>1033</v>
@@ -4340,13 +4370,13 @@
         <v>1108104</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1717</v>
@@ -4355,18 +4385,18 @@
         <v>1854078</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115E8C8B-EBD5-4846-A018-7F96F0B4B121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C23A5C-0716-48BF-8CC0-4DF6E4DA4549}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4542,13 @@
         <v>6643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4527,13 +4557,13 @@
         <v>12700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4542,19 +4572,19 @@
         <v>19342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>56</v>
@@ -4563,13 +4593,13 @@
         <v>57450</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4578,13 +4608,13 @@
         <v>78749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -4593,13 +4623,13 @@
         <v>136200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4644,13 @@
         <v>64093</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>94</v>
@@ -4629,13 +4659,13 @@
         <v>91449</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>156</v>
@@ -4644,18 +4674,18 @@
         <v>155542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4667,13 +4697,13 @@
         <v>6980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4682,13 +4712,13 @@
         <v>22210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -4697,19 +4727,19 @@
         <v>29190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>74</v>
@@ -4718,13 +4748,13 @@
         <v>79304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>130</v>
@@ -4733,13 +4763,13 @@
         <v>127006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>204</v>
@@ -4748,13 +4778,13 @@
         <v>206310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4799,13 @@
         <v>86284</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>152</v>
@@ -4784,13 +4814,13 @@
         <v>149216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -4799,18 +4829,18 @@
         <v>235500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4822,13 +4852,13 @@
         <v>18950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4837,13 +4867,13 @@
         <v>27910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -4852,19 +4882,19 @@
         <v>46860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>112</v>
@@ -4873,13 +4903,13 @@
         <v>122292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -4888,13 +4918,13 @@
         <v>136569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -4903,13 +4933,13 @@
         <v>258861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4954,13 @@
         <v>141242</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>167</v>
@@ -4939,13 +4969,13 @@
         <v>164479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>296</v>
@@ -4954,18 +4984,18 @@
         <v>305721</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,13 +5007,13 @@
         <v>17706</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4992,13 +5022,13 @@
         <v>27154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -5007,19 +5037,19 @@
         <v>44860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>127</v>
@@ -5028,13 +5058,13 @@
         <v>143161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -5043,13 +5073,13 @@
         <v>144759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>261</v>
@@ -5058,13 +5088,13 @@
         <v>287920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5109,13 @@
         <v>160867</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>160</v>
@@ -5094,13 +5124,13 @@
         <v>171913</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>303</v>
@@ -5109,18 +5139,18 @@
         <v>332780</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5162,13 @@
         <v>21229</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5147,13 +5177,13 @@
         <v>34316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -5162,19 +5192,19 @@
         <v>55545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>107</v>
@@ -5183,13 +5213,13 @@
         <v>117584</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -5198,13 +5228,13 @@
         <v>151668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>241</v>
@@ -5213,13 +5243,13 @@
         <v>269252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5264,13 @@
         <v>138813</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -5249,13 +5279,13 @@
         <v>185984</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>287</v>
@@ -5264,18 +5294,18 @@
         <v>324797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5317,13 @@
         <v>35455</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -5302,13 +5332,13 @@
         <v>56078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -5317,19 +5347,19 @@
         <v>91533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>204</v>
@@ -5338,13 +5368,13 @@
         <v>189504</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>242</v>
@@ -5353,13 +5383,13 @@
         <v>288018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -5368,13 +5398,13 @@
         <v>477522</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5419,13 @@
         <v>224959</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>290</v>
@@ -5404,13 +5434,13 @@
         <v>344096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -5419,13 +5449,13 @@
         <v>569055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5472,13 @@
         <v>106963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -5457,13 +5487,13 @@
         <v>180367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -5472,19 +5502,19 @@
         <v>287330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>680</v>
@@ -5493,13 +5523,13 @@
         <v>709295</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>861</v>
@@ -5508,13 +5538,13 @@
         <v>926769</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>1541</v>
@@ -5523,13 +5553,13 @@
         <v>1636064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5574,13 @@
         <v>816258</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>1025</v>
@@ -5559,13 +5589,13 @@
         <v>1107136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1804</v>
@@ -5574,18 +5604,18 @@
         <v>1923394</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CE62D4-B7F3-4567-9CC3-BF698E11A491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66754D-A711-499D-94EF-5746AE5D7D23}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5761,13 @@
         <v>3499</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5746,13 +5776,13 @@
         <v>15376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5761,19 +5791,19 @@
         <v>18875</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
@@ -5782,28 +5812,28 @@
         <v>22349</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -5812,13 +5842,13 @@
         <v>66955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,28 +5863,28 @@
         <v>25848</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>59981</v>
+        <v>59982</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -5863,18 +5893,18 @@
         <v>85830</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5886,13 +5916,13 @@
         <v>14146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5901,13 +5931,13 @@
         <v>29013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -5916,19 +5946,19 @@
         <v>43159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>42</v>
@@ -5937,13 +5967,13 @@
         <v>63779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5952,13 +5982,13 @@
         <v>87077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -5967,13 +5997,13 @@
         <v>150856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6018,13 @@
         <v>77925</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>96</v>
@@ -6003,13 +6033,13 @@
         <v>116090</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -6018,18 +6048,18 @@
         <v>194015</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6041,13 +6071,13 @@
         <v>26278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -6056,13 +6086,13 @@
         <v>51115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -6071,19 +6101,19 @@
         <v>77392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>52</v>
@@ -6092,13 +6122,13 @@
         <v>52996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>103</v>
@@ -6107,13 +6137,13 @@
         <v>68120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -6122,13 +6152,13 @@
         <v>121117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6173,13 @@
         <v>79274</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -6158,13 +6188,13 @@
         <v>119235</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>248</v>
@@ -6173,18 +6203,18 @@
         <v>198509</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6226,13 @@
         <v>42669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -6211,13 +6241,13 @@
         <v>84645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -6226,19 +6256,19 @@
         <v>127314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>80</v>
@@ -6247,13 +6277,13 @@
         <v>82172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
@@ -6262,13 +6292,13 @@
         <v>90913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -6277,13 +6307,13 @@
         <v>173084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6328,13 @@
         <v>124841</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>261</v>
@@ -6313,13 +6343,13 @@
         <v>175558</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>381</v>
@@ -6328,18 +6358,18 @@
         <v>300398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6381,13 @@
         <v>60802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -6366,13 +6396,13 @@
         <v>56942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -6381,19 +6411,19 @@
         <v>117744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>83</v>
@@ -6402,13 +6432,13 @@
         <v>76363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>139</v>
@@ -6417,13 +6447,13 @@
         <v>84696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -6432,13 +6462,13 @@
         <v>161059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6483,13 @@
         <v>137165</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>233</v>
@@ -6468,13 +6498,13 @@
         <v>141638</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>377</v>
@@ -6483,18 +6513,18 @@
         <v>278803</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6536,13 @@
         <v>62598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
@@ -6521,13 +6551,13 @@
         <v>93682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>248</v>
@@ -6536,19 +6566,19 @@
         <v>156280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>185</v>
@@ -6557,13 +6587,13 @@
         <v>124844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>315</v>
@@ -6572,13 +6602,13 @@
         <v>167675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6587,13 +6617,13 @@
         <v>292519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6638,13 @@
         <v>187442</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>473</v>
@@ -6623,13 +6653,13 @@
         <v>261357</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>748</v>
@@ -6638,13 +6668,13 @@
         <v>448799</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6691,13 @@
         <v>209991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>478</v>
@@ -6676,13 +6706,13 @@
         <v>330773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>702</v>
@@ -6691,19 +6721,19 @@
         <v>540764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>451</v>
@@ -6712,13 +6742,13 @@
         <v>422505</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>794</v>
@@ -6727,13 +6757,13 @@
         <v>543085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>1245</v>
@@ -6742,13 +6772,13 @@
         <v>965590</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6793,13 @@
         <v>632496</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>1272</v>
@@ -6778,13 +6808,13 @@
         <v>873858</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1947</v>
@@ -6793,18 +6823,18 @@
         <v>1506354</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
